--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>895495.3859166238</v>
+        <v>924518.4331568545</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564202</v>
+        <v>236428.3313983642</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728817</v>
+        <v>9662474.503279345</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8833218.586775606</v>
+        <v>8546297.344331576</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>45.58123541261014</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>182.9517011130388</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>189.5612880073683</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>71.30468686766753</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>98.54896909037103</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>46.45345203807926</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +992,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="I7" t="n">
-        <v>9.275596830496854</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>219.3567277916629</v>
+        <v>53.87467807705866</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1345,7 +1347,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>9.275596830496628</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>56.07426992839161</v>
       </c>
     </row>
     <row r="12">
@@ -1534,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1582,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>83.58354151325305</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>153.5271835984416</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>401.3550844723776</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1771,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>355.546756558266</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>40.32232414915258</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2053,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>355.546756558266</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>72.65793777463465</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>101.7177065691261</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>164.62420577171</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>155.2114886365808</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>128.7835007017901</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.925119512544002</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.7498680634313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>69.0708624534348</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>128.7835007017899</v>
+        <v>171.7498680634317</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3038,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>401.3550844723776</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>321.7064610691122</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3156,7 +3158,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.5677531302079</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,7 +3283,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>14.8749104535243</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>123.0607915108182</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3478,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V37" t="n">
-        <v>94.63926978363978</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3506,16 +3508,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>323.9918595228957</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3560,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3703,22 +3705,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>54.47555601903363</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>47.40419526769258</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>155.2114886365809</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>150.8242332627663</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>18.71042305649429</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>1058.584402877492</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>1058.584402877492</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>833.8575889684332</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="V2" t="n">
-        <v>1808.746763379062</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="W2" t="n">
-        <v>1808.746763379062</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.746763379062</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.746763379062</v>
+        <v>301.0384945329112</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>181.329976101644</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>181.329976101644</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>181.329976101644</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>411.954469746149</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>644.700696699239</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>416.4820843333866</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>181.329976101644</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>181.329976101644</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>181.329976101644</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>181.329976101644</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>126.9677807731686</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>37.17560255650359</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240415</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5382038240415</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>952.5674858910851</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="C5" t="n">
-        <v>952.5674858910851</v>
+        <v>571.4512031447746</v>
       </c>
       <c r="D5" t="n">
-        <v>952.5674858910851</v>
+        <v>571.4512031447746</v>
       </c>
       <c r="E5" t="n">
-        <v>952.5674858910851</v>
+        <v>571.4512031447746</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>571.4512031447746</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>153.4873950429615</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2650.22641219188</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2650.22641219188</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2396.464626829972</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2065.401739486401</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>1712.633084216287</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>1339.167325955207</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y5" t="n">
-        <v>1339.167325955207</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4665,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4689,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>108.9687959810047</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>108.9687959810047</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>108.9687959810047</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>108.9687959810047</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H7" t="n">
-        <v>108.9687959810047</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.9054987607761</v>
+        <v>808.6937513590203</v>
       </c>
       <c r="C8" t="n">
-        <v>53.94298182036445</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D8" t="n">
-        <v>53.94298182036445</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2256.941971675474</v>
+        <v>2642.730224273719</v>
       </c>
       <c r="V8" t="n">
-        <v>1925.879084331904</v>
+        <v>2311.667336930148</v>
       </c>
       <c r="W8" t="n">
-        <v>1573.11042906179</v>
+        <v>1958.898681660034</v>
       </c>
       <c r="X8" t="n">
-        <v>1199.64467080071</v>
+        <v>1585.432923398954</v>
       </c>
       <c r="Y8" t="n">
-        <v>809.505338824898</v>
+        <v>1195.293591423142</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
@@ -4881,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="U10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.944160717209</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C11" t="n">
-        <v>1177.981643776797</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.981643776797</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E11" t="n">
-        <v>792.1933911785532</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F11" t="n">
-        <v>381.2074863889456</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5045,13 +5047,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5066,25 +5068,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X11" t="n">
-        <v>2323.683332757143</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.544000781331</v>
+        <v>934.637173372437</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5111,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5121,22 +5123,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C13" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D13" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E13" t="n">
-        <v>99.59950625323012</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F13" t="n">
-        <v>99.59950625323012</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G13" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>643.7011644960776</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2310.5492509541</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C14" t="n">
-        <v>1941.586734013689</v>
+        <v>567.286643657864</v>
       </c>
       <c r="D14" t="n">
-        <v>1583.321035406938</v>
+        <v>209.0209450511135</v>
       </c>
       <c r="E14" t="n">
-        <v>1197.532782808694</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>786.5468780190865</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5276,19 +5278,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y14" t="n">
-        <v>2697.149091018222</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1208.982837814967</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C17" t="n">
-        <v>1208.982837814967</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7171392082162</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E17" t="n">
-        <v>464.928886609972</v>
+        <v>824.0670245476144</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>413.0811197580069</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5513,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2656.419470665543</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2656.419470665543</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2656.419470665543</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2656.419470665543</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2325.356583321972</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1972.587928051858</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1599.122169790778</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>1208.982837814967</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5607,34 +5609,34 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5701,10 +5703,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>343.360151857325</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
         <v>343.360151857325</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1937.083492693021</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C20" t="n">
-        <v>1568.120975752609</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D20" t="n">
-        <v>1209.855277145859</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E20" t="n">
-        <v>824.0670245476144</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F20" t="n">
-        <v>413.0811197580069</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X20" t="n">
         <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>2323.683332757143</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5826,10 +5828,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
         <v>309.190302261463</v>
@@ -5841,13 +5843,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222.942782082032</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="C22" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D22" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E22" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="T22" t="n">
-        <v>625.3838260558018</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="U22" t="n">
-        <v>625.3838260558018</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="V22" t="n">
-        <v>625.3838260558018</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="W22" t="n">
-        <v>625.3838260558018</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="X22" t="n">
-        <v>625.3838260558018</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="Y22" t="n">
-        <v>404.5912469122717</v>
+        <v>2373.5477363903</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1577.945354755378</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>1208.982837814967</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082162</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -6014,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>2354.684526795312</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1964.5451948195</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537797</v>
@@ -6087,28 +6089,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>473.4444960005474</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="W25" t="n">
-        <v>184.0273259635867</v>
+        <v>2250.95263953017</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2476.569858826099</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C26" t="n">
-        <v>2107.607341885688</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D26" t="n">
-        <v>1749.341643278937</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E26" t="n">
-        <v>1363.553390680693</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6236,7 +6238,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6254,22 +6256,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.569858826099</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424003</v>
@@ -6303,25 +6305,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6342,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2342.015910972395</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="C28" t="n">
-        <v>2173.079728044489</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>2697.149091018222</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X28" t="n">
-        <v>2697.149091018222</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y28" t="n">
-        <v>2523.664375802635</v>
+        <v>210.7222632714565</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1422.14692331494</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C29" t="n">
-        <v>1422.14692331494</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D29" t="n">
-        <v>1422.14692331494</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E29" t="n">
-        <v>1036.358670716696</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6494,19 +6496,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2572.351853615953</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2572.351853615953</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2572.351853615953</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>2198.886095354873</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>1808.746763379062</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6552,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>2442.464602812336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>2153.047432775375</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2310.5492509541</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C32" t="n">
-        <v>1941.586734013689</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D32" t="n">
-        <v>1583.321035406938</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E32" t="n">
-        <v>1197.532782808694</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F32" t="n">
-        <v>786.5468780190865</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.164380266785</v>
       </c>
       <c r="X32" t="n">
-        <v>2697.149091018222</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y32" t="n">
-        <v>2697.149091018222</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="33">
@@ -6774,34 +6776,34 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
         <v>2488.762748073964</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>366.9506135266865</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>197.950813265019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T34" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U34" t="n">
-        <v>513.8405610245969</v>
+        <v>2567.064746875001</v>
       </c>
       <c r="V34" t="n">
-        <v>513.8405610245969</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1268.68094731003</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.68094731003</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036446</v>
@@ -6938,10 +6940,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
-        <v>2423.485734520779</v>
+        <v>2505.946441258126</v>
       </c>
       <c r="U35" t="n">
-        <v>2169.72394915887</v>
+        <v>2252.184655896217</v>
       </c>
       <c r="V35" t="n">
-        <v>2045.420119349963</v>
+        <v>1921.121768552647</v>
       </c>
       <c r="W35" t="n">
-        <v>2045.420119349963</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="X35" t="n">
-        <v>2045.420119349963</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="Y35" t="n">
-        <v>1655.280787374151</v>
+        <v>1568.353113282533</v>
       </c>
     </row>
     <row r="36">
@@ -7026,13 +7028,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7126,7 +7128,7 @@
         <v>2697.149091018223</v>
       </c>
       <c r="U37" t="n">
-        <v>2407.975480672791</v>
+        <v>2567.064746875001</v>
       </c>
       <c r="V37" t="n">
         <v>2312.380258669114</v>
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.94416071721</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776798</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.981643776798</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1933911785536</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F38" t="n">
-        <v>381.2074863889461</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036446</v>
@@ -7178,13 +7180,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7208,16 +7210,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018223</v>
+        <v>2669.933035536899</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018223</v>
+        <v>2317.164380266785</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="39">
@@ -7351,19 +7353,19 @@
         <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>2667.732171871845</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>2519.585513306029</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>2305.297090124192</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T40" t="n">
-        <v>2077.988902792793</v>
+        <v>2469.840903686825</v>
       </c>
       <c r="U40" t="n">
-        <v>2022.963088632153</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V40" t="n">
         <v>2022.963088632153</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776797</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776797</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785532</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889456</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1261.831893336434</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
         <v>309.190302261463</v>
@@ -7509,22 +7511,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,58 +7545,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
         <v>571.3497027553424</v>
@@ -7609,10 +7611,10 @@
         <v>281.9325327183818</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.944160717209</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776797</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.981643776797</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1933911785532</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F44" t="n">
-        <v>381.2074863889456</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1157.367208492925</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7737,31 +7739,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>2496.601208959201</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>2496.601208959201</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>2496.601208959201</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>2496.601208959201</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H46" t="n">
         <v>2022.963088632153</v>
@@ -7810,46 +7812,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>2678.249673789441</v>
       </c>
       <c r="U46" t="n">
-        <v>2567.064746875</v>
+        <v>2678.249673789441</v>
       </c>
       <c r="V46" t="n">
-        <v>2312.380258669114</v>
+        <v>2678.249673789441</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632153</v>
+        <v>2678.249673789441</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632153</v>
+        <v>2678.249673789441</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>2678.249673789441</v>
       </c>
     </row>
   </sheetData>
@@ -8064,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>263.6455160524019</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9255,10 +9257,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9729,7 +9731,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>95.44404627266917</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,7 +22606,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>144.8005573570961</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22677,7 +22679,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>10.29981296480349</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22686,13 +22688,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22717,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>82.24660231436343</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>123.9453835684545</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22784,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22799,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>225.3738036739861</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,7 +22834,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>127.9622607708923</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -22841,7 +22843,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22945,25 +22947,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>64.16285195963718</v>
       </c>
       <c r="I7" t="n">
-        <v>125.6900249618414</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -23027,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>31.86743971662639</v>
+        <v>197.3494894312306</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23200,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -23233,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.0062774114811</v>
+        <v>202.6835682680295</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>330.163668727662</v>
       </c>
     </row>
     <row r="12">
@@ -23422,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23470,13 +23472,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>202.6983327287247</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>228.4031864738202</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>12.42908554841739</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23659,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>58.23741346252899</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>14.15607842565913</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23789,16 +23791,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23941,13 +23943,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23972,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>58.23741346252899</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>74.00725420552321</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>123.3173988889582</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24209,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24254,7 +24256,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -24269,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>205.1068949067591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>96.92615468724722</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>96.92615468724708</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>249.2990479957453</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>12.09831362246982</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24622,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.83478528866354</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,7 +24736,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>182.1533050548545</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24859,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24895,13 +24897,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>96.92615468724728</v>
+        <v>53.95978732560545</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24926,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>12.42908554841739</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>27.53450764830086</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25084,19 +25086,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>13.60313571158721</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>201.5734099041335</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>204.6914669593167</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25333,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25366,10 +25368,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V37" t="n">
-        <v>157.4983735401882</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25394,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>89.79231049789928</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25448,10 +25450,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>300.8083635436241</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25570,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,22 +25593,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>231.8063182229441</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>322.3269054107765</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25807,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>69.82361682150338</v>
+        <v>69.82361682150315</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>218.9068674157027</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26032,19 +26034,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>206.32468240159</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>763912.8841460876</v>
+        <v>476991.6417020574</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>763912.8841460876</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>763912.8841460873</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460876</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460873</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460873</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460876</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>763912.8841460876</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>763912.8841460873</v>
+        <v>763912.8841460876</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>763912.8841460873</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149698</v>
+        <v>168322.7414503685</v>
       </c>
       <c r="C2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="D2" t="n">
+        <v>274694.9795149695</v>
+      </c>
+      <c r="E2" t="n">
         <v>274694.9795149699</v>
       </c>
-      <c r="D2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="G2" t="n">
         <v>274694.9795149696</v>
-      </c>
-      <c r="F2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="G2" t="n">
-        <v>274694.9795149697</v>
       </c>
       <c r="H2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149695</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="K2" t="n">
         <v>274694.9795149697</v>
@@ -26350,10 +26352,10 @@
         <v>274694.9795149697</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149698</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>440708.0835147456</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>102466.1171957467</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27086.83710496504</v>
+        <v>25384.5047005482</v>
       </c>
       <c r="C4" t="n">
         <v>27086.83710496504</v>
@@ -26427,7 +26429,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="F4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="G4" t="n">
         <v>27086.83710496504</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>51181.37951678014</v>
+      </c>
+      <c r="C5" t="n">
         <v>82859.07806340946</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26485,7 +26487,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26494,10 +26496,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340947</v>
@@ -26506,10 +26508,10 @@
         <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-425218.8148679491</v>
+        <v>-34536.48421377287</v>
       </c>
       <c r="C6" t="n">
-        <v>164749.0643465954</v>
+        <v>-275959.0191681504</v>
       </c>
       <c r="D6" t="n">
-        <v>164749.0643465953</v>
+        <v>164749.064346595</v>
       </c>
       <c r="E6" t="n">
+        <v>198376.6643465954</v>
+      </c>
+      <c r="F6" t="n">
+        <v>198376.6643465954</v>
+      </c>
+      <c r="G6" t="n">
         <v>198376.6643465951</v>
-      </c>
-      <c r="F6" t="n">
-        <v>198376.6643465952</v>
-      </c>
-      <c r="G6" t="n">
-        <v>198376.6643465952</v>
       </c>
       <c r="H6" t="n">
         <v>198376.6643465952</v>
       </c>
       <c r="I6" t="n">
-        <v>198376.664346595</v>
+        <v>198376.6643465952</v>
       </c>
       <c r="J6" t="n">
-        <v>21953.44515400234</v>
+        <v>126121.969475456</v>
       </c>
       <c r="K6" t="n">
-        <v>198376.6643465952</v>
+        <v>95910.54715084855</v>
       </c>
       <c r="L6" t="n">
         <v>198376.6643465952</v>
@@ -26558,10 +26560,10 @@
         <v>198376.6643465952</v>
       </c>
       <c r="O6" t="n">
-        <v>198376.6643465951</v>
+        <v>198376.6643465954</v>
       </c>
       <c r="P6" t="n">
-        <v>198376.6643465951</v>
+        <v>198376.6643465953</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26759,25 +26761,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>276.1565137023555</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26805,7 +26807,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26814,10 +26816,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545557</v>
@@ -26826,10 +26828,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>342.7224034979613</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>5.427767452760121</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>8.843836255870382</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>0.6163037941626981</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.07532874947132621</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>0.727517133052019</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>7.116914878779992</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358774</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>17.9226257568905</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>14.38448725650264</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>9.615648792164379</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>4.676990252263572</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.06315309310006209</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>0.5614884095623707</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>4.46492368217439</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894687</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>9.899534402948822</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>9.664145601394054</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>8.926402650179689</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>7.638079550938415</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>5.288210368587927</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32461,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>5.212927593424832</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>6.370323552522136</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>151.8955562274027</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>4.916638815831903</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,7 +35737,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
@@ -35744,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35975,10 +35977,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36133,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36209,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36449,7 +36451,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37631,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37868,13 +37870,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
         <v>130.3926104730631</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38035,7 +38037,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
